--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_labazhou_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_labazhou_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>同学们，今天我们继续来学习第二课腊八粥，请大家准备好听写，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>学生听写</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“请大家准备好听写”体现出老师发起了一个开展课堂活动的指令，其中“大家”体现出这个课堂活动是由全体学生共同参与的。“准备好听写”中的“听写”体现出老师让学生开展听写活动。综合上述整段话的分析过程，这个课堂活动是全体学生参与的听写活动，符合“学生听写”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生听写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -489,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +512,11 @@
           <t>褐色筷子碗盏，褐色筷子碗展，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段老师话语内容不完整且不明确，无法从中判断出任何关于课堂活动的信息。
@@ -540,7 +548,11 @@
           <t>下面呢我们来走进课文，来学习腊八粥。这篇课文请同学们看第一关，读一读，反复出声，朗读二至八自然段边读边想象巴尔的采样时间两分钟好，开始，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“下面呢我们来走进课文，来学习腊八粥。这篇课文请同学们看第一关，读一读”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“反复出声，朗读二至八自然段边读边想象”体现出老师要求学生一边朗读一边想象文字的场景，想象属于个体的大脑活动，无法集体整齐划一地开展，只能每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -548,7 +560,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +579,11 @@
           <t>了解了巴儿在等待的喝粥的时候的那个样。那下面请大家快速的画出八儿的语言动作和神态描写之后，小组进行交流，时间是两分钟，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>独立练习或小组学习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那下面请大家快速的画出八儿的语言动作和神态描写”体现出老师发起了一个开展课堂活动的指令，“请大家”表明这个课堂活动是全体学生共同参与的，“画出八儿的语言动作和神态描写”体现出每个学生需独立完成的任务。进一步地，“小组进行交流”体现出老师要求学生以小组的形式开展讨论活动。综合上述整段话的分析过程，这个课堂活动先是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征，然后是学生以小组形式通过互相讨论来达到自主学习的目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习、小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -599,7 +615,11 @@
           <t>你要标注清楚，你找到的是哪一种。然后你在汇报的时候，你一看就知道了，要不汇报的时候还得现想好了，那下面谁来给咱们读一读，你找到的关于巴儿的神态语言动作的描写呢，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你要标注清楚，你找到的是哪一种。然后你在汇报的时候，你一看就知道了，要不汇报的时候还得现想好了”体现出老师发起了一个开展课堂活动的指令，要求学生标注清楚并做好汇报准备，这是个体独自完成的思考和准备活动。进一步地，“那下面谁来给咱们读一读，你找到的关于巴儿的神态语言动作的描写呢”体现出老师邀请一位学生开展朗读活动。综合上述整段话的分析过程，这个课堂活动先是由学生个体独自进行准备的活动，符合“独立练习”的特征，之后是由一位学生进行朗读，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”、“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -612,7 +632,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -631,7 +651,11 @@
           <t>没有让大家分析这个描写，体现出什么嗯执掌他的神态语言和动作就可以了。还有吗？这里还有我来为你补充啊，来吧，东哥嗯请大家把目光集中在第九自然段妈妈等一下，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“来吧，东哥嗯请大家把目光集中在第九自然段妈妈等一下”体现出老师发起了一个开展课堂活动的指令。首先，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“把目光集中在第九自然段”体现出老师要求学生共同关注第九自然段，关注是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -644,7 +668,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -663,7 +687,11 @@
           <t>在第二自然段里。还有一句话嗯嗯，</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段老师的话语没有明确发起或提及任何课堂活动的指令，只是在描述关于文本的内容。
@@ -690,7 +718,11 @@
           <t>你认为他应该是怎样的一种心情？你用你觉得合适的方法把这段对话呃，巴尔的这个和妈妈对话读出来，只读对话啊，谁来试着读一读，啊，露西，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来试着读一读，啊，露西”体现出老师发起了一个开展课堂活动的指令，邀请一名学生开展活动，“露西”可能是被邀请学生的名字。进一步地，“你用你觉得合适的方法把这段对话读出来，只读对话”体现出该学生被要求用自己觉得合适的方式朗读指定的对话。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -698,7 +730,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -717,7 +749,11 @@
           <t>妈妈要到什么时候才要到夜里？那我饿了，饿了也得到太阳落下时才准才准吃。跟他一样。哎，你试着读一读，不用同学举手自己叠读一读。妈妈妈，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“哎，你试着读一读，不用同学举手自己读一读。”体现出老师发起了一个开展课堂活动的指令，该活动是一个读书活动。“不用同学举手”体现出老师没有想要邀请某个学生来执行读书活动，结合“自己读一读”，体现出老师要求全体学生自主读书。接下来分析“你试着读一读”这句话，根据前面的分析，老师发起的是一个要求全体学生自主读书的活动，并没有想要邀请一个特定学生来读，因此，这里的“你”应该指代的是“你们”，即全体学生。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。 所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -730,7 +766,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -749,7 +785,11 @@
           <t>女同学读一下妈妈，只读对话。好，妈妈开始，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“女同学读一下妈妈，只读对话。好，妈妈开始”体现出老师发起了一个开展课堂活动的指令。首先，“女同学”表明了活动的执行主体是全体女同学。“读一下妈妈，只读对话”体现出老师让女同学进行朗读活动。“开始”一词表明老师要求立即执行该朗读活动。综合上述整段话的分析过程，这个课堂活动是由全体女同学参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -762,7 +802,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -781,7 +821,11 @@
           <t>那么我们刚刚啊是用自己所理解的巴尔此时的状态来读了这个文字。那么下面呢我们来体会一下巴尔究竟是怎样的一种心理呢？请大家完成学习单上的第二题，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“请大家完成学习单上的第二题”体现出老师发起了一个开展课堂活动的指令。首先，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“完成学习单上的第二题”体现出老师要求每一位学生独立完成学习单上的题目。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -794,7 +838,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -813,7 +857,11 @@
           <t>这个是王珂洁写的那先请王珂洁说一说，这是他的，一会儿你觉得不全的，你可以补充你根据哪些句子能够找到这些特点呢，我根据拿起书把书拿下，我根据八人的语言描写写出来了呃，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“这个是王珂洁写的那先请王珂洁说一说”体现出老师发起了一个开展课堂活动的指令，邀请王珂洁这位同学开展活动。“说一说”体现出该学生被要求用话语来描述自己的见解。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -821,7 +869,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -840,7 +888,11 @@
           <t>我要补充的，有没有？那这是一种什么样的心理渴望和期盼，对不还有，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在提问和引导学生思考，并没有发起明确的课堂活动指令，也未体现出具体的课堂活动形式和参与人员。
@@ -872,7 +924,11 @@
           <t>还有补充吗，这也这也证明了巴尔对腊八州的好奇。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在陈述观点，并没有发起任何课堂活动的指令，也没有提及学生需要进行的具体活动。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -885,7 +941,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -904,7 +960,11 @@
           <t>已经能够体现出好奇了。你找到没？你哪句话看老师，我知道，你可以找别人帮你补是吧？因为那个，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述比较混乱且没有明确发起一个具体的、可预测的课堂活动指令，无法确定学生接下来要进行的课堂活动类型。
@@ -931,7 +991,11 @@
           <t>因好奇而急于想尝到这奇怪的东西罢了。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，没有体现出老师发起课堂活动的指令，也没有任何与课堂活动相关的特征短语或特征短句。
@@ -958,7 +1022,11 @@
           <t>有没有读出这种着急的情绪呢？我们在带着这种着急着急的心理，在再来读一读他和妈妈的对话，来，谁来试着读一读，搞谁啊，妈妈要到什么时候才要到夜里？</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来试着读一读”体现出老师发起了一个开展课堂活动的指令，邀请一位学生参与活动。“试着读一读”体现出该学生被要求用朗读的方式来表现。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -966,7 +1034,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -985,7 +1053,11 @@
           <t>你再来读再带入。这个时候你是不是就更能体会到他那种心情啊？那谁再来试着读一读，就我们找两位同学来读，王美林和吕涵，王美林读妈妈李雨涵读巴儿，妈妈要到什么时候才要到夜里？</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那谁再来试着读一读，就我们找两位同学来读，王美林和吕涵，王美林读妈妈李雨涵读巴儿”体现出老师发起了一个开展课堂活动的指令，邀请两位学生开展朗读活动。进一步地，老师明确指定了王美林和吕涵两位同学，以及他们各自朗读的内容。综合上述整段话的分析过程，这个课堂活动是由两位学生执行、且是一种朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1017,7 +1089,11 @@
           <t>然后呢来理解到了人物的心理，对不对？那我们就试着用这种方法继续学习，九继续学习，九到十二自然段，请大家快速的找出，并想一想，巴尔此时的，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那我们就试着用这种方法继续学习，九继续学习，九到十二自然段，请大家快速的找出，并想一想”体现出老师发起了一个开展课堂活动的指令。首先，“请大家”体现出这个课堂活动是由全体学生共同参与的。进一步地，“快速的找出，并想一想”体现出老师要求学生个体进行查找和思考活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1030,7 +1106,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1049,7 +1125,11 @@
           <t>也想到了。而此时的心里，那么你觉得巴尔此时此刻的语言应该是用一种怎样的情绪来读出来来读出来的，你来给他读，</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你来给他读”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。进一步地，“读出来”体现出该学生被要求朗读巴尔的语言。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1062,7 +1142,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1081,7 +1161,11 @@
           <t>还有问号，那你在读的时候应该注意，那巴尔此时到底是一种怎样的心理？咱们来自己写一写，看衣袋上的第三，刚刚同学们已经找不到了，对吧？好，现在就把它写出来就可以了。嗯，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“咱们来自己写一写”体现出老师发起了一个开展课堂活动的指令。首先，“咱们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“写一写”体现出该活动是一个书写活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且整齐划一地开展的书写活动，符合“学生齐写”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1108,7 +1192,11 @@
           <t>你可以画好标上序号，然后你自己在这个表格里只写序号。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你可以画好标上序号，然后你自己在这个表格里只写序号”体现出老师发起了一个开展课堂活动的指令。首先，“你”体现出老师邀请一位特定的学生参与活动。进一步地，“画好标上序号，然后在这个表格里只写序号”体现出老师要求该学生完成绘画、标注序号和填写序号的任务，这些任务需要学生独立完成。综合上述整段话的分析过程，这个课堂活动是由一个学生参与、且独自完成的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1140,7 +1228,11 @@
           <t>其实这两段它主要就是语言描写，那么通过这个语言描写，能体现出巴尔的什么样的一种心理和他的怎样的一种形象。来高阳，你说说你你是怎么写的？我是从第九自然段和第十一自然段来看的。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“来高阳，你说说你你是怎么写的？”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“高阳”可能是被邀请学生的名字。进一步地，“你说说你你是怎么写的”体现出该学生被要求用话语来回答自己的写作思路。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1153,7 +1245,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1172,7 +1264,11 @@
           <t>嗯，八儿的心里除了想自己多吃几碗，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是陈述了一个关于八儿的情况，并没有发起任何开展课堂活动的指令。
@@ -1204,7 +1300,11 @@
           <t>那为啥还妈妈你也吃三碗呢，那怎么不说，你们都吃一碗吧，让他妈是小孩儿，没想到不依赖妈妈是吗，你吃三碗，就你多吃这种事儿，他为什么让妈妈也跟他一起吃三碗，能想到吗？如果他妈要不吃三碗的话，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师一直在提出问题，引导学生进行思考，但没有明确给出开展课堂活动的指令，没有体现出具体的课堂活动方式和参与人员。综合上述整段话的分析过程，这个课堂活动无法确定具体的类别和参与方式，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1231,7 +1331,11 @@
           <t>不能显得我吃的，怎么的是我这心理啊，所以他这种孩子这种天真像高阳写的是一种小聪明，那么老是用一个词来表述什么是狡猾吗？狡猾，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么老是用一个词来表述什么是狡猾吗？”体现出老师发起了一个开展课堂活动的指令。首先，“老是用一个词来表述”体现出老师要求全体学生思考并表达对于“狡猾”这个词的理解。思考和表达活动是个体的大脑和语言活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1258,7 +1362,11 @@
           <t>那么天真有了。小霞，有了那巴尔让爸爸的大哥找了一个理由，他们不吃甜的，我能吃三碗。因为我爱吃，对不那么说明他想多吃，这是一种什么呀？贪心贪怎么贪贪心，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么说明他想多吃，这是一种什么呀？”体现出老师发起了一个开展课堂活动的指令。首先，“这是一种什么呀？”体现出老师邀请学生回答问题。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1285,7 +1393,11 @@
           <t>咱们看哈说的是挺好，和妈妈俩人分，这儿呢，和妈妈俩人分，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在进行描述和讲解，没有发起明确的课堂活动指令。
@@ -1312,7 +1424,11 @@
           <t>你既能带这种天真可爱，还能读出他那种啥呀？护食贪心护食的那种，对你怎么读，谁来试试，既能表现出他的天真可爱，来还得表现出那种贪心来段子涵，妈妈等一下，我要吃三碗，</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来试试，既能表现出他的天真可爱，来还得表现出那种贪心来段子涵”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“段子涵”可能是被邀请学生的名字。进一步地，“谁来试试”体现出老师邀请学生尝试用特定的方式朗读。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1325,7 +1441,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1344,7 +1460,11 @@
           <t>你看他跟那个语气，谁才试着学他的语气再读一遍，我觉得他读的很好，啊，要不然我吃三碗半，你看这种语气谁来试试，再来一次，回肠吧。我要吃三碗，我们只准大哥吃一碗，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁才试着学他的语气再读一遍”和“谁来试试”体现出老师发起了一个开展课堂活动的指令。老师邀请某个学生用特定的语气再次朗读，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1357,7 +1477,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1376,7 +1496,11 @@
           <t>咱们一定要注意在不同的这种语气里边，它的这个状态是不完全一样的，但是读的已经很好了啊。好，那么我们读出了巴儿的这种贪心的这种小孩的天真和狡。那么接下来我们再来看看巴儿又发生了什么样的事。</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么接下来我们再来看看巴儿又发生了什么样的事”体现出老师发起了一个开展课堂活动的指令。首先，“我们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“再来看看”体现出老师邀请学生一起观察、思考巴儿接下来发生的事，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1384,7 +1508,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1403,7 +1527,11 @@
           <t>比一比巴儿对的猜测和见到腊八粥的语句，体会巴尔内心的感受。然后小组议论完成第四题，这个得有五分钟的时间开始，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>独立练习或小组学习</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，第一步，先分析第一个子文本段——“比一比巴儿对的猜测和见到腊八粥的语句，体会巴尔内心的感受”，体现出老师发起了一个开展课堂活动的指令。首先，未明确提及活动的主体是个体还是全体学生，推测为全体学生参与。进一步地，“体会巴尔内心的感受”体现出老师要求学生独自思考和体会，这是一种个体大脑活动，符合“独立练习”的特征。
@@ -1437,7 +1565,11 @@
           <t>把你们找到的对象补充一下，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“把你们找到的对象补充一下”体现出老师发起了一个开展课堂活动的指令。首先，“你们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“补充一下”体现出老师要求学生对已找到的对象进行补充完善，这种补充完善的活动是每个学生独立思考和完成的。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1450,7 +1582,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1469,7 +1601,11 @@
           <t>那么请大家按照你的学习单来进行汇报，谁来，简单说就行，然后他看到的是什么样的，有不同吗？就可以，那个问他，他猜测粒子已经稀烂到认不清楚了。</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那么请大家按照你的学习单来进行汇报”体现出老师发起了一个开展课堂活动的指令，邀请全体学生参与汇报。“谁来，简单说就行”体现出老师邀请一个学生进行简单发言。综合上述整段话的分析过程，这个课堂活动是由全体学生先进行汇报，再由一个学生发言，符合“多人展示”和“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“多人展示、个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1482,7 +1618,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1637,11 @@
           <t>花生仁儿，不需要说这些，他都根据什么判断的，是准确的生生活验经验。</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在进行讲述和提问，没有发起任何明确的课堂活动指令。
@@ -1528,7 +1668,11 @@
           <t>没想到颜色是褐色，请坐，他唯一没想到的就是这一点，对吧？好了，那么你觉着他在猜州的时候，他有一个语言描写，谁来说一下，这是哪句语言描写，懂没？嗯，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来说一下，这是哪句语言描写”体现出老师发起了一个开展课堂活动的指令，邀请一位学生来回答问题。“说一下”体现出该学生被要求用话语来回答。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1541,7 +1685,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1560,7 +1704,11 @@
           <t>但是最后当他看到之后发现跟他想的有些不一样，所以就感到非常的意义很好。那么请同学们看啊，我们从第二自然段一直研究到第十七，自然段都是在写啥？这个巴这里阿尔不是写啥呢？</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么请同学们看啊，我们从第二自然段一直研究到第十七自然段都是在写啥？”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“研究”体现出老师要求学生思考和探讨所指定自然段的内容，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1568,7 +1716,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1587,7 +1735,11 @@
           <t>写在一个文章里详细详写，下面这个是略写，为啥这么写？有详有略详略得当。那详略得当就是说在一个文中重点的啊能突出作者中心的他的想法的。</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那详略得当就是说在一个文中重点的啊能突出作者中心的他的想法的”体现出老师发起了一个开展课堂活动的指令。首先，“在一个文中”体现出这个课堂活动是由全体学生共同参与的。进一步地，“重点的啊能突出作者中心的他的想法的”体现出老师要求学生思考和理解文章详略得当与突出作者中心思想之间的关系，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
